--- a/GWD Data/Water Meter.xlsx
+++ b/GWD Data/Water Meter.xlsx
@@ -40,7 +40,7 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Providing and fixing Water meter for Rigid PVC pipes, including jointing with PVC solvent cement-15 mm water met</t>
+    <t>Providing and fixing Water meter for Rigid PVC pipes, including jointing with PVC solvent cement-15 mm water meter</t>
   </si>
   <si>
     <t>Header Unit</t>
@@ -67,7 +67,7 @@
     <t>MR11005</t>
   </si>
   <si>
-    <t>Water Meter, Indian Standard, Class B, Multijet, 15mm ( ½? )</t>
+    <t>Water Meter, Indian Standard, Class B, Multijet, 15mm ( ½")</t>
   </si>
   <si>
     <t>each</t>
@@ -123,7 +123,7 @@
     <t>MR11006</t>
   </si>
   <si>
-    <t>Water Meter, Indian Standard, Class B, Multijet, 20mm ( ¾? )</t>
+    <t>Water Meter, Indian Standard, Class B, Multijet, 20mm ( ¾" )</t>
   </si>
 </sst>
 </file>
